--- a/明日之后共创服数据库/异变核芯.xlsx
+++ b/明日之后共创服数据库/异变核芯.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DE6B38-6D5B-403C-A49E-7ACF4F28D316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A86F5-4CAF-47D4-AA06-81E626A59CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="672" windowWidth="21240" windowHeight="10572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="48" windowWidth="18984" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
   <si>
     <t>异变核芯名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>晶化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,10 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>克制类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,26 +662,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>限时核芯研制</t>
-  </si>
-  <si>
-    <t>限时核芯研制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异变核芯-冰凌龙息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>限时核芯研制、新禧商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">电磁机枪随射击持续获得极寒值，且射击不再消耗子弹。极寒值50%以上时射击造成102%伤害。极寒值满时射击消耗60%极寒值打出3发冰锥弹。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.02.02</t>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-鸣闪火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-贯通战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-电极效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-球状闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-裂变效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双枪/手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-流光疾射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时核芯研制、交易之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时核芯研制、新禧商店、交易之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变核芯-酸流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +826,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -822,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +894,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1143,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1159,17 +1195,16 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="65.5546875" customWidth="1"/>
-    <col min="11" max="11" width="47.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="65.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1195,31 +1230,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -1228,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1242,20 +1274,19 @@
       <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1264,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1278,18 +1309,17 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1298,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>23</v>
@@ -1312,20 +1342,19 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1333,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1347,28 +1376,28 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1376,25 +1405,25 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -1402,19 +1431,19 @@
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -1428,25 +1457,25 @@
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -1454,25 +1483,25 @@
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1480,19 +1509,19 @@
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>23</v>
@@ -1506,25 +1535,25 @@
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -1532,22 +1561,22 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>23</v>
@@ -1561,491 +1590,852 @@
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>102</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="24" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="1">
-        <v>5</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="1">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="1">
-        <v>5</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="C31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="1">
-        <v>5</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="C33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="1">
-        <v>5</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="C34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="1">
-        <v>5</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="1">
-        <v>5</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="1">
-        <v>5</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="1">
-        <v>5</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="1">
-        <v>5</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="1">
-        <v>5</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="1">
-        <v>5</v>
-      </c>
-      <c r="H34" s="13" t="s">
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H45" s="13"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="1">
-        <v>5</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="1">
-        <v>5</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="1">
-        <v>5</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="1">
-        <v>5</v>
-      </c>
-      <c r="H38" s="13" t="s">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="J39" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="H50" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G51" s="1">
         <v>1</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="J40" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="H51" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J44" s="1"/>
+      <c r="H52" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2054,7 +2444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2063,6 +2453,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D34">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2081,6 +2566,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>